--- a/sample_names.xlsx
+++ b/sample_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\alkalmazásaim\streamlit sorsolókerék\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D0805-2E9F-4E5A-AC63-165AD20D3AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080F6EA4-7EF8-47B6-ABE9-99E4F0D24FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="7" sheetId="3" r:id="rId3"/>
     <sheet name="8" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Név</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Molli</t>
   </si>
   <si>
-    <t>Tomi</t>
-  </si>
-  <si>
     <t>Lali</t>
   </si>
   <si>
@@ -191,6 +188,12 @@
   </si>
   <si>
     <t>Lilla</t>
+  </si>
+  <si>
+    <t>P. Tomi</t>
+  </si>
+  <si>
+    <t>H. Tomi</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,32 +731,32 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -763,17 +766,22 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -798,17 +806,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -818,27 +826,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -848,7 +856,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -858,10 +866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40189125-9ED9-443A-82F7-CC51C062B961}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,52 +881,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
